--- a/rozjazdy zbiorcze czerwiec.xlsx
+++ b/rozjazdy zbiorcze czerwiec.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\czerwiec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\czerwiec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_05_06s.s" sheetId="1" r:id="rId1"/>
-    <sheet name="04.06" sheetId="11" r:id="rId2"/>
-    <sheet name="rozjazdy 01.06" sheetId="10" r:id="rId3"/>
+    <sheet name="rozjady 11.06" sheetId="13" r:id="rId2"/>
+    <sheet name="rozjazdy 07.06" sheetId="12" r:id="rId3"/>
+    <sheet name="04.06- " sheetId="11" r:id="rId4"/>
+    <sheet name="rozjazdy 01.06" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="156">
   <si>
     <t>milenium</t>
   </si>
@@ -145,9 +147,6 @@
     <t xml:space="preserve">nest inspekcja </t>
   </si>
   <si>
-    <t>zlecenie wykonano 03.06</t>
-  </si>
-  <si>
     <t>F/0702/11/2018/1</t>
   </si>
   <si>
@@ -155,13 +154,448 @@
   </si>
   <si>
     <t>Szymanowskiego, Strzelin</t>
+  </si>
+  <si>
+    <t>PAWEŁ POLAŃSKI</t>
+  </si>
+  <si>
+    <t>50-443</t>
+  </si>
+  <si>
+    <t>PRĄDZYŃSKIEGO 47/23 WROCŁAW</t>
+  </si>
+  <si>
+    <t>5207006,515207006,</t>
+  </si>
+  <si>
+    <t>976.19</t>
+  </si>
+  <si>
+    <t>Adriana CIENCIAŁA</t>
+  </si>
+  <si>
+    <t>54-117</t>
+  </si>
+  <si>
+    <t>TRAUGUTTA 69/14 WROCŁAW</t>
+  </si>
+  <si>
+    <t>461.20</t>
+  </si>
+  <si>
+    <t>3702.68</t>
+  </si>
+  <si>
+    <t>Janusz Haręźlak</t>
+  </si>
+  <si>
+    <t>54-238</t>
+  </si>
+  <si>
+    <t>popowicka 102/20 wrocław</t>
+  </si>
+  <si>
+    <t>10399.45</t>
+  </si>
+  <si>
+    <t>ROKSANA GRABSKA</t>
+  </si>
+  <si>
+    <t>54-611</t>
+  </si>
+  <si>
+    <t>592.81</t>
+  </si>
+  <si>
+    <t>Ida Wierzgacz</t>
+  </si>
+  <si>
+    <t>54-436</t>
+  </si>
+  <si>
+    <t>Budziszyńska 128/5 Wrocław</t>
+  </si>
+  <si>
+    <t>91.09</t>
+  </si>
+  <si>
+    <t>8549.62</t>
+  </si>
+  <si>
+    <t>16.52</t>
+  </si>
+  <si>
+    <t>AGNIESZKA MŁODZIK-DOBRZENIECKA</t>
+  </si>
+  <si>
+    <t>54-608</t>
+  </si>
+  <si>
+    <t>TYRMANDA 21/7 WROCŁAW</t>
+  </si>
+  <si>
+    <t>1505.96</t>
+  </si>
+  <si>
+    <t>KRZYSZTOF DOBROWOLSKI</t>
+  </si>
+  <si>
+    <t>51-124</t>
+  </si>
+  <si>
+    <t>KAMIEŃSKIEGO 55A/14 WROCŁAW</t>
+  </si>
+  <si>
+    <t>3902.43</t>
+  </si>
+  <si>
+    <t>1397.49</t>
+  </si>
+  <si>
+    <t>796.31</t>
+  </si>
+  <si>
+    <t>915.62</t>
+  </si>
+  <si>
+    <t>alior</t>
+  </si>
+  <si>
+    <t>BUCZACKA 6C/10 WROCŁAW // KURKOWA 45/14, 50-210 WROCŁAW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KURKOWA 45/14, 50-210 WROCŁAW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  //  BUCZACKA 6C/10 WROCŁAW </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUCZACKA 6C/10 WROCŁAW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //  KURKOWA 45/14, 50-210 WROCŁAW</t>
+    </r>
+  </si>
+  <si>
+    <t>zlecenia wykonano 04.06</t>
+  </si>
+  <si>
+    <t>zlecenia wykonano 07.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0004776066</t>
+  </si>
+  <si>
+    <t>56-400</t>
+  </si>
+  <si>
+    <t>SEJMOWA, 4/4, OLEŚNICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0004406680</t>
+  </si>
+  <si>
+    <t>55-114</t>
+  </si>
+  <si>
+    <t>LEŚNA 45 . PIERWOSZÓW</t>
+  </si>
+  <si>
+    <t>0005127524</t>
+  </si>
+  <si>
+    <t>55-300</t>
+  </si>
+  <si>
+    <t>ŚWIDNICKA 34/4 , ŚRODA ŚLĄSKA</t>
+  </si>
+  <si>
+    <t>0004143867</t>
+  </si>
+  <si>
+    <t>55-093</t>
+  </si>
+  <si>
+    <t>AKACJOWA 59F , KIEŁCZÓW</t>
+  </si>
+  <si>
+    <t>obok Wiszni Małej</t>
+  </si>
+  <si>
+    <t>RAFAŁ NAJDZIK</t>
+  </si>
+  <si>
+    <t>55-011</t>
+  </si>
+  <si>
+    <t>ZIEMSKA 6/12 SIECHNICE</t>
+  </si>
+  <si>
+    <t>3229.97</t>
+  </si>
+  <si>
+    <t>bph</t>
+  </si>
+  <si>
+    <t>Krzysztof PYTLIK</t>
+  </si>
+  <si>
+    <t>55-010</t>
+  </si>
+  <si>
+    <t>Opolska 28, 55-010 Groblice</t>
+  </si>
+  <si>
+    <t>24.37</t>
+  </si>
+  <si>
+    <t>DANIEL LEWICKI</t>
+  </si>
+  <si>
+    <t>ZIMNICA 9B/2, 56-400 ZIMNICA</t>
+  </si>
+  <si>
+    <t>21948.67</t>
+  </si>
+  <si>
+    <t>MARCIN ZALEWSKI</t>
+  </si>
+  <si>
+    <t>55-200</t>
+  </si>
+  <si>
+    <t>OŁAWSKA 8B, 55-200 JACZKOWICE</t>
+  </si>
+  <si>
+    <t>8312.16</t>
+  </si>
+  <si>
+    <t>MONIKA FIERKOWICZ</t>
+  </si>
+  <si>
+    <t>ENERGETYCZNA 7B/14A SIECHNICE</t>
+  </si>
+  <si>
+    <t>2031.73</t>
+  </si>
+  <si>
+    <t>BOGUMIŁA STANDIO</t>
+  </si>
+  <si>
+    <t>TUWIMA 9, 55-200 OŁAWA</t>
+  </si>
+  <si>
+    <t>873.96</t>
+  </si>
+  <si>
+    <t>RAFAŁ MIELNICKI</t>
+  </si>
+  <si>
+    <t>55-095</t>
+  </si>
+  <si>
+    <t>BZOWA 3, 55-095 DŁUGOŁĘKA</t>
+  </si>
+  <si>
+    <t>4989.07</t>
+  </si>
+  <si>
+    <t>Marcin CIEŚLIK</t>
+  </si>
+  <si>
+    <t>KOPERNIKA 8C/3 OLEŚNICA</t>
+  </si>
+  <si>
+    <t>1186.04</t>
+  </si>
+  <si>
+    <t>Artur KASOWSKI</t>
+  </si>
+  <si>
+    <t>56-320</t>
+  </si>
+  <si>
+    <t>KWIATOWA 2A, 56-320 KROSNICE</t>
+  </si>
+  <si>
+    <t>52.67</t>
+  </si>
+  <si>
+    <t>2486.84</t>
+  </si>
+  <si>
+    <t>4019.95</t>
+  </si>
+  <si>
+    <t>KRYSTYNA PYTLIŃSKA</t>
+  </si>
+  <si>
+    <t>55-140</t>
+  </si>
+  <si>
+    <t>KOLEJOWA 8/3 ŻMIGRÓD</t>
+  </si>
+  <si>
+    <t>3542.78</t>
+  </si>
+  <si>
+    <t>Witold KORTA</t>
+  </si>
+  <si>
+    <t>55-120</t>
+  </si>
+  <si>
+    <t>STEFANA BATOREGO 35/1 OBORNIKI ŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>862.58</t>
+  </si>
+  <si>
+    <t>711.77</t>
+  </si>
+  <si>
+    <t>864.77</t>
+  </si>
+  <si>
+    <t>AMADEUSZ DENYS</t>
+  </si>
+  <si>
+    <t>55-220</t>
+  </si>
+  <si>
+    <t>IWASZKIEWICZA 48/10, 55-200 OŁAWA // GŁÓWNA 28, 55-220 JELCZ LASKOWICE</t>
+  </si>
+  <si>
+    <t>551.29</t>
+  </si>
+  <si>
+    <t>Monika KOCOT</t>
+  </si>
+  <si>
+    <t>55-081</t>
+  </si>
+  <si>
+    <t>Chłopska 14/1 Milin</t>
+  </si>
+  <si>
+    <t>240.99</t>
+  </si>
+  <si>
+    <t>9078.32</t>
+  </si>
+  <si>
+    <t>339.36</t>
+  </si>
+  <si>
+    <t>7304.87</t>
+  </si>
+  <si>
+    <t>kolo mietkowa</t>
+  </si>
+  <si>
+    <t>przed miliczem</t>
+  </si>
+  <si>
+    <t>pod olesnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAZEM PO WROCŁAWIU </t>
+  </si>
+  <si>
+    <t>61km</t>
+  </si>
+  <si>
+    <t>pod oławą</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>IWASZKIEWICZA 48/10, 55-200 OŁAWA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> // GŁÓWNA 28, 55-220 JELCZ LASKOWICE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>GŁÓWNA 28, 55-220 JELCZ LASKOWICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> // IWASZKIEWICZA 48/10, 55-200 OŁAWA</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,13 +771,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +786,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -736,7 +1180,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -779,13 +1223,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -815,11 +1253,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -831,6 +1269,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1157,284 +1606,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="46.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="5">
+        <v>820</v>
+      </c>
+      <c r="H1" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="5">
+        <v>7405.5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>65</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16">
+        <v>3500.71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16">
+        <v>6927</v>
+      </c>
+      <c r="H4" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42">
+        <v>65</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>3402529</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="44">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>3402510</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="44">
+        <v>2.68</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>3402346</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="44">
+        <v>2.68</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>3402381</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="44">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>3402386</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="44">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>3402359</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="31">
+        <v>43511</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="44">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>3402562</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="44">
+        <v>13.4</v>
+      </c>
+      <c r="I12" s="44">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>3402499</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="44">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>3402427</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6620378</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="44">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>3402475</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5">
+        <v>6620378</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="44">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>3402445</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="44">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>3402410</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="44">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>3402571</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="D7" s="19"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="D8" s="19"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="19"/>
-      <c r="D16" s="22"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="44">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>3402555</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="44">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>3401002</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1292702</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>3402347</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2771699</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>3402432</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2771699</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>65</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1442,74 +2148,132 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>3402458</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>65</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>3402473</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4185369</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>3402419</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="5">
+        <v>8860378</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>3402467</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="30"/>
-      <c r="D27" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>3402598</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>65</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1517,14 +2281,29 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>3402496</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>65</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1532,29 +2311,65 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>3402352</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7028031</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>45</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>3402418</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="5">
+        <v>7028031</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>45</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1562,14 +2377,29 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="19"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>3402373</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>90</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1577,14 +2407,31 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>3402444</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5531005</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>65</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1592,14 +2439,28 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>3402488</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5531005</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1607,14 +2468,28 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>3402480</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="5">
+        <v>5531005</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1622,14 +2497,28 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>3402569</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3455840</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -1637,29 +2526,58 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="19"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>3402345</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>65</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="19"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>3402426</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -1667,14 +2585,26 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="19"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>3402433</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -1682,14 +2612,26 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="19"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>3402456</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -1697,22 +2639,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B41" s="19"/>
       <c r="C41" s="5"/>
       <c r="D41" s="19"/>
@@ -1727,7 +2654,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B42" s="19"/>
       <c r="C42" s="5"/>
       <c r="D42" s="19"/>
@@ -1742,7 +2669,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B43" s="19"/>
       <c r="C43" s="5"/>
       <c r="D43" s="19"/>
@@ -1757,7 +2684,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B44" s="19"/>
       <c r="C44" s="5"/>
       <c r="D44" s="19"/>
@@ -1772,7 +2699,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B45" s="19"/>
       <c r="C45" s="5"/>
       <c r="D45" s="19"/>
@@ -1787,7 +2714,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B46" s="19"/>
       <c r="C46" s="5"/>
       <c r="D46" s="19"/>
@@ -1802,7 +2729,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B47" s="19"/>
       <c r="C47" s="5"/>
       <c r="D47" s="19"/>
@@ -1817,7 +2744,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B48" s="19"/>
       <c r="C48" s="5"/>
       <c r="D48" s="19"/>
@@ -1832,7 +2759,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B49" s="19"/>
       <c r="C49" s="5"/>
       <c r="D49" s="19"/>
@@ -1847,10 +2774,10 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B50" s="19"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -1862,7 +2789,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B51" s="19"/>
       <c r="C51" s="5"/>
       <c r="D51" s="19"/>
@@ -1877,7 +2804,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B52" s="19"/>
       <c r="C52" s="5"/>
       <c r="D52" s="19"/>
@@ -1892,10 +2819,10 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B53" s="19"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="20"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -1907,10 +2834,11 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="30"/>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B54" s="19"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="20"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -1921,11 +2849,12 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="30"/>
-      <c r="D55" s="20"/>
-      <c r="F55" s="3"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B55" s="19"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -1935,11 +2864,12 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="30"/>
-      <c r="D56" s="20"/>
-      <c r="F56" s="3"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B56" s="19"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -1949,11 +2879,12 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="30"/>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B57" s="19"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="20"/>
-      <c r="F57" s="3"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1963,11 +2894,11 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="30"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="D58" s="20"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -1977,9 +2908,9 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="30"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="D59" s="20"/>
       <c r="F59" s="3"/>
       <c r="G59" s="5"/>
@@ -1991,9 +2922,9 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="30"/>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="D60" s="20"/>
       <c r="F60" s="3"/>
       <c r="G60" s="5"/>
@@ -2005,9 +2936,9 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="30"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="28"/>
       <c r="D61" s="20"/>
       <c r="F61" s="3"/>
       <c r="G61" s="5"/>
@@ -2019,10 +2950,9 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="5"/>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="28"/>
       <c r="D62" s="20"/>
       <c r="F62" s="3"/>
       <c r="G62" s="5"/>
@@ -2034,9 +2964,9 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="30"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="28"/>
       <c r="D63" s="20"/>
       <c r="F63" s="3"/>
       <c r="G63" s="5"/>
@@ -2048,9 +2978,9 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="30"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="25"/>
+      <c r="B64" s="28"/>
       <c r="D64" s="20"/>
       <c r="F64" s="3"/>
       <c r="G64" s="5"/>
@@ -2062,9 +2992,9 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" s="25"/>
+      <c r="B65" s="28"/>
       <c r="D65" s="20"/>
       <c r="F65" s="3"/>
       <c r="G65" s="5"/>
@@ -2076,10 +3006,11 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="30"/>
-      <c r="D66" s="25"/>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" s="25"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="20"/>
       <c r="F66" s="3"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -2090,9 +3021,9 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="31"/>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="D67" s="20"/>
       <c r="F67" s="3"/>
       <c r="G67" s="5"/>
@@ -2104,9 +3035,9 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="4"/>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="D68" s="20"/>
       <c r="F68" s="3"/>
       <c r="G68" s="5"/>
@@ -2118,9 +3049,9 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="4"/>
+    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="26"/>
+      <c r="B69" s="28"/>
       <c r="D69" s="20"/>
       <c r="F69" s="3"/>
       <c r="G69" s="5"/>
@@ -2132,10 +3063,10 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="4"/>
-      <c r="D70" s="20"/>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" s="25"/>
+      <c r="B70" s="28"/>
+      <c r="D70" s="23"/>
       <c r="F70" s="3"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -2146,13 +3077,11 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" s="25"/>
+      <c r="B71" s="29"/>
+      <c r="D71" s="20"/>
+      <c r="F71" s="3"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -2162,13 +3091,11 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72" s="27"/>
+      <c r="B72" s="4"/>
+      <c r="D72" s="20"/>
+      <c r="F72" s="3"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
@@ -2178,13 +3105,11 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73" s="27"/>
+      <c r="B73" s="4"/>
+      <c r="D73" s="20"/>
+      <c r="F73" s="3"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -2194,13 +3119,11 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" s="27"/>
+      <c r="B74" s="4"/>
+      <c r="D74" s="20"/>
+      <c r="F74" s="3"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -2210,8 +3133,8 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75" s="32"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="19"/>
@@ -2226,11 +3149,11 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" s="32"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -2242,8 +3165,8 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77" s="32"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19"/>
@@ -2258,8 +3181,8 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A78" s="32"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="19"/>
@@ -2274,8 +3197,8 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79" s="32"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="19"/>
@@ -2290,13 +3213,13 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A80" s="32"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="19"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="32"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -2306,11 +3229,11 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81" s="32"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="19"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -2322,8 +3245,8 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82" s="32"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="19"/>
@@ -2338,8 +3261,8 @@
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83" s="32"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="19"/>
@@ -2354,13 +3277,13 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A84" s="32"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="19"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="F84" s="30"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -2370,11 +3293,11 @@
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A85" s="32"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="19"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -2386,8 +3309,8 @@
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86" s="32"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="19"/>
@@ -2402,8 +3325,8 @@
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87" s="32"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="19"/>
@@ -2418,8 +3341,8 @@
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" s="32"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="19"/>
@@ -2434,8 +3357,8 @@
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" s="32"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="19"/>
@@ -2450,13 +3373,13 @@
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" s="32"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="19"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="33"/>
+      <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -2466,8 +3389,8 @@
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91" s="32"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="19"/>
@@ -2482,8 +3405,8 @@
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92" s="32"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="19"/>
@@ -2498,13 +3421,13 @@
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" s="32"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -2514,13 +3437,13 @@
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A94" s="32"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="31"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -2530,8 +3453,8 @@
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A95" s="32"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="19"/>
@@ -2546,8 +3469,8 @@
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A96" s="32"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="19"/>
@@ -2562,13 +3485,13 @@
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A97" s="37"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -2578,13 +3501,13 @@
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -2594,8 +3517,8 @@
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A99" s="32"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="19"/>
@@ -2610,8 +3533,8 @@
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A100" s="32"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="19"/>
@@ -2626,8 +3549,8 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A101" s="32"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="19"/>
@@ -2642,10 +3565,13 @@
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="4"/>
-      <c r="D102" s="20"/>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A102" s="32"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -2655,67 +3581,87 @@
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A103" s="32"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A104" s="32"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A105" s="32"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A106" s="12"/>
+      <c r="B106" s="4"/>
+      <c r="D106" s="20"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D113" s="34"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -2725,7 +3671,8 @@
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D117" s="32"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -2735,7 +3682,7 @@
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -2745,7 +3692,7 @@
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -2755,7 +3702,7 @@
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -2765,9 +3712,49 @@
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B121" s="15"/>
-      <c r="F121" s="16"/>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B125" s="15"/>
+      <c r="F125" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2777,15 +3764,1071 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="56.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5">
+        <v>3401002</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="5">
+        <v>1292702</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>3402419</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8860378</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>3402347</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2771699</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>3402432</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2771699</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>3402467</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>3402569</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3455840</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>3402473</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4185369</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>65</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>3402569</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3455840</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>3402458</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5">
+        <v>65</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>3402496</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="5">
+        <v>820</v>
+      </c>
+      <c r="H20" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>3402352</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7028031</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>45</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>3402418</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7028031</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>3402373</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>3402444</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5531005</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>3402488</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5531005</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>3402480</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="5">
+        <v>5531005</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="5">
+        <v>7405.5</v>
+      </c>
+      <c r="H31" s="5">
+        <v>65</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16">
+        <v>6927</v>
+      </c>
+      <c r="H33" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>3402598</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16">
+        <v>3500.71</v>
+      </c>
+      <c r="H41" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>3402345</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="5">
+        <v>65</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>3402426</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>3402433</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>3402456</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6">
+        <v>3402427</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>3402475</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3402445</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="5">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="6">
+        <v>3402499</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>3402562</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>3402410</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="5">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>3402510</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>3402346</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>3402381</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>3402386</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>3402359</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="43">
+        <v>43511</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>3402571</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>3402555</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>3402562</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="H21" s="5">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>3402529</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="5">
+        <v>13.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5">
         <v>3345132</v>
       </c>
@@ -2811,11 +4854,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>3390772</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="10"/>
@@ -2826,8 +4869,8 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>3390785</v>
       </c>
@@ -2842,7 +4885,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>3390767</v>
       </c>
@@ -2857,7 +4900,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -2867,17 +4910,17 @@
       <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="41" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="5">
         <v>35</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>3390848</v>
       </c>
@@ -2892,8 +4935,8 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="15"/>
@@ -2922,7 +4965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2930,19 +4973,19 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40">
         <v>3390848</v>
       </c>
       <c r="B1" s="6"/>
@@ -2959,7 +5002,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2969,8 +5012,8 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40">
         <v>3390851</v>
       </c>
       <c r="B3" s="6"/>
@@ -2987,7 +5030,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2997,8 +5040,8 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33">
         <v>3393885</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3021,7 +5064,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3031,8 +5074,8 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33">
         <v>3393784</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3055,7 +5098,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3065,31 +5108,31 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38">
         <v>3393932</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="39">
         <v>13.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3099,8 +5142,8 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40">
         <v>3390847</v>
       </c>
       <c r="B11" s="6"/>

--- a/rozjazdy zbiorcze czerwiec.xlsx
+++ b/rozjazdy zbiorcze czerwiec.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\czerwiec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\czerwiec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_05_06s.s" sheetId="1" r:id="rId1"/>
-    <sheet name="rozjazdy 12.06" sheetId="14" r:id="rId2"/>
-    <sheet name="rozjady 11.06" sheetId="13" r:id="rId3"/>
-    <sheet name="rozjazdy 07.06" sheetId="12" r:id="rId4"/>
-    <sheet name="04.06- " sheetId="11" r:id="rId5"/>
-    <sheet name="rozjazdy 01.06" sheetId="10" r:id="rId6"/>
+    <sheet name="rozjazdy 17.06" sheetId="15" r:id="rId2"/>
+    <sheet name="rozjazdy 12.06" sheetId="14" r:id="rId3"/>
+    <sheet name="rozjady 11.06" sheetId="13" r:id="rId4"/>
+    <sheet name="rozjazdy 07.06" sheetId="12" r:id="rId5"/>
+    <sheet name="04.06- " sheetId="11" r:id="rId6"/>
+    <sheet name="rozjazdy 01.06" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="443">
   <si>
     <t>milenium</t>
   </si>
@@ -1496,6 +1497,15 @@
   </si>
   <si>
     <t>1836.29</t>
+  </si>
+  <si>
+    <t>51-149</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAJĄCZKOWSKA 47/11, 51-180 WROCŁAW </t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1734,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1916,6 +1926,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2092,7 +2108,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2174,6 +2190,15 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2502,22 +2527,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H52" sqref="H1:I1048576"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="46.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>425</v>
       </c>
@@ -2535,7 +2560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>425</v>
       </c>
@@ -2553,14 +2578,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>434</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="16" t="s">
         <v>436</v>
       </c>
       <c r="E3" s="9"/>
@@ -2571,7 +2596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>79</v>
       </c>
@@ -2589,7 +2614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
@@ -2614,7 +2639,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>85</v>
       </c>
@@ -2636,7 +2661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>88</v>
       </c>
@@ -2657,7 +2682,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2685,7 +2710,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>3402529</v>
       </c>
@@ -2708,7 +2733,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>3402510</v>
       </c>
@@ -2731,7 +2756,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>3402346</v>
       </c>
@@ -2754,7 +2779,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>3402381</v>
       </c>
@@ -2777,7 +2802,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>3402386</v>
       </c>
@@ -2800,7 +2825,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>3402359</v>
       </c>
@@ -2823,7 +2848,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>3402562</v>
       </c>
@@ -2849,7 +2874,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>3402499</v>
       </c>
@@ -2872,7 +2897,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>3402427</v>
       </c>
@@ -2898,7 +2923,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>3402475</v>
       </c>
@@ -2924,7 +2949,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>3402445</v>
       </c>
@@ -2950,7 +2975,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>3402410</v>
       </c>
@@ -2973,7 +2998,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>3402571</v>
       </c>
@@ -2996,7 +3021,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>3402555</v>
       </c>
@@ -3019,7 +3044,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>3401002</v>
       </c>
@@ -3045,7 +3070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>3402347</v>
       </c>
@@ -3071,7 +3096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>3402432</v>
       </c>
@@ -3101,7 +3126,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3402458</v>
       </c>
@@ -3128,7 +3153,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>3402473</v>
       </c>
@@ -3154,7 +3179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>3402419</v>
       </c>
@@ -3180,7 +3205,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>3402467</v>
       </c>
@@ -3204,7 +3229,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>3402598</v>
       </c>
@@ -3232,7 +3257,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>3402496</v>
       </c>
@@ -3260,7 +3285,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>3402352</v>
       </c>
@@ -3292,7 +3317,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>3402418</v>
       </c>
@@ -3322,7 +3347,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>3402373</v>
       </c>
@@ -3350,7 +3375,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>3402444</v>
       </c>
@@ -3380,7 +3405,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>3402488</v>
       </c>
@@ -3408,7 +3433,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>3402480</v>
       </c>
@@ -3436,7 +3461,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>3402569</v>
       </c>
@@ -3464,7 +3489,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>3402345</v>
       </c>
@@ -3494,7 +3519,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>3402426</v>
       </c>
@@ -3520,7 +3545,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>3402433</v>
       </c>
@@ -3546,7 +3571,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>3402456</v>
       </c>
@@ -3572,7 +3597,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>3418656</v>
       </c>
@@ -3589,7 +3614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>3418642</v>
       </c>
@@ -3615,7 +3640,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>3418651</v>
       </c>
@@ -3639,7 +3664,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>3418629</v>
       </c>
@@ -3663,7 +3688,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25">
         <v>3423400</v>
       </c>
@@ -3688,11 +3713,15 @@
       <c r="H47" s="4">
         <v>90</v>
       </c>
+      <c r="I47" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J47" s="43"/>
       <c r="K47" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="25">
         <v>3423367</v>
       </c>
@@ -3718,7 +3747,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="25">
         <v>3423217</v>
       </c>
@@ -3743,8 +3772,9 @@
       <c r="H49" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="25">
         <v>3423219</v>
       </c>
@@ -3769,8 +3799,9 @@
       <c r="H50" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="25">
         <v>3423298</v>
       </c>
@@ -3795,8 +3826,9 @@
       <c r="H51" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="43"/>
+    </row>
+    <row r="52" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="25">
         <v>3423303</v>
       </c>
@@ -3821,8 +3853,9 @@
       <c r="H52" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="43"/>
+    </row>
+    <row r="53" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="25">
         <v>3423413</v>
       </c>
@@ -3847,8 +3880,9 @@
       <c r="H53" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="43"/>
+    </row>
+    <row r="54" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="25">
         <v>3423215</v>
       </c>
@@ -3870,8 +3904,9 @@
       <c r="H54" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="43"/>
+    </row>
+    <row r="55" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="25">
         <v>3423397</v>
       </c>
@@ -3893,8 +3928,9 @@
       <c r="H55" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="43"/>
+    </row>
+    <row r="56" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25">
         <v>3423292</v>
       </c>
@@ -3917,7 +3953,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="25">
         <v>3423296</v>
       </c>
@@ -3939,8 +3975,9 @@
       <c r="H57" s="4">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="25">
         <v>3423327</v>
       </c>
@@ -3962,8 +3999,9 @@
       <c r="H58" s="4">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="43"/>
+    </row>
+    <row r="59" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="25">
         <v>3423293</v>
       </c>
@@ -3985,8 +4023,9 @@
       <c r="H59" s="4">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="43"/>
+    </row>
+    <row r="60" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="25">
         <v>3423288</v>
       </c>
@@ -4008,8 +4047,9 @@
       <c r="H60" s="4">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="43"/>
+    </row>
+    <row r="61" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25">
         <v>3423372</v>
       </c>
@@ -4034,8 +4074,9 @@
       <c r="I61" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="43"/>
+    </row>
+    <row r="62" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="25">
         <v>3423371</v>
       </c>
@@ -4060,8 +4101,9 @@
       <c r="I62" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="43"/>
+    </row>
+    <row r="63" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="25">
         <v>3423248</v>
       </c>
@@ -4083,8 +4125,9 @@
       <c r="H63" s="4">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="43"/>
+    </row>
+    <row r="64" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="25">
         <v>3423281</v>
       </c>
@@ -4106,11 +4149,12 @@
       <c r="H64" s="4">
         <v>65</v>
       </c>
+      <c r="J64" s="43"/>
       <c r="K64" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="25">
         <v>3423337</v>
       </c>
@@ -4133,7 +4177,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="25">
         <v>3423330</v>
       </c>
@@ -4156,7 +4200,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="25">
         <v>3423265</v>
       </c>
@@ -4178,8 +4222,9 @@
       <c r="H67" s="4">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="43"/>
+    </row>
+    <row r="68" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="25">
         <v>3423200</v>
       </c>
@@ -4201,8 +4246,9 @@
       <c r="H68" s="4">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="43"/>
+    </row>
+    <row r="69" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="25">
         <v>3423384</v>
       </c>
@@ -4225,7 +4271,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="25">
         <v>3423379</v>
       </c>
@@ -4248,7 +4294,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="25">
         <v>3423271</v>
       </c>
@@ -4270,14 +4316,18 @@
       <c r="H71" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="47"/>
+    </row>
+    <row r="72" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="25">
         <v>3402361</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>438</v>
       </c>
+      <c r="C72" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>437</v>
       </c>
@@ -4290,14 +4340,18 @@
       <c r="H72" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="43"/>
+    </row>
+    <row r="73" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="25">
         <v>3402497</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>438</v>
       </c>
+      <c r="C73" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>437</v>
       </c>
@@ -4310,8 +4364,9 @@
       <c r="H73" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="43"/>
+    </row>
+    <row r="74" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="25">
         <v>2631008</v>
       </c>
@@ -4334,7 +4389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="25">
         <v>2665003</v>
       </c>
@@ -4357,7 +4412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="25">
         <v>2631572</v>
       </c>
@@ -4383,7 +4438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="25">
         <v>2649684</v>
       </c>
@@ -4409,7 +4464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="25">
         <v>2649882</v>
       </c>
@@ -4435,7 +4490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25">
         <v>2651448</v>
       </c>
@@ -4460,8 +4515,9 @@
       <c r="H79" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="43"/>
+    </row>
+    <row r="80" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="25">
         <v>2652148</v>
       </c>
@@ -4487,7 +4543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="25">
         <v>2652164</v>
       </c>
@@ -4512,8 +4568,9 @@
       <c r="H81" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="43"/>
+    </row>
+    <row r="82" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="25">
         <v>2652182</v>
       </c>
@@ -4539,7 +4596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="25">
         <v>2652752</v>
       </c>
@@ -4565,7 +4622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="25">
         <v>2653525</v>
       </c>
@@ -4590,8 +4647,9 @@
       <c r="H84" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="43"/>
+    </row>
+    <row r="85" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="25">
         <v>2655035</v>
       </c>
@@ -4617,7 +4675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="25">
         <v>2655412</v>
       </c>
@@ -4643,7 +4701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="25">
         <v>2657066</v>
       </c>
@@ -4668,8 +4726,9 @@
       <c r="H87" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="43"/>
+    </row>
+    <row r="88" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="25">
         <v>2657171</v>
       </c>
@@ -4694,8 +4753,9 @@
       <c r="H88" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="43"/>
+    </row>
+    <row r="89" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="25">
         <v>2657826</v>
       </c>
@@ -4721,7 +4781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="25">
         <v>2658057</v>
       </c>
@@ -4747,7 +4807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="25">
         <v>2658605</v>
       </c>
@@ -4773,7 +4833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="25">
         <v>2659760</v>
       </c>
@@ -4799,7 +4859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="25">
         <v>2660057</v>
       </c>
@@ -4825,7 +4885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="25">
         <v>2661093</v>
       </c>
@@ -4851,7 +4911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="25">
         <v>2661500</v>
       </c>
@@ -4877,7 +4937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="25">
         <v>2661562</v>
       </c>
@@ -4903,7 +4963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="25">
         <v>2662325</v>
       </c>
@@ -4928,8 +4988,9 @@
       <c r="H97" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="47"/>
+    </row>
+    <row r="98" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="25">
         <v>2662615</v>
       </c>
@@ -4954,8 +5015,9 @@
       <c r="H98" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J98" s="43"/>
+    </row>
+    <row r="99" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="25">
         <v>2664418</v>
       </c>
@@ -4980,8 +5042,9 @@
       <c r="H99" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J99" s="43"/>
+    </row>
+    <row r="100" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="25">
         <v>2663195</v>
       </c>
@@ -5006,8 +5069,9 @@
       <c r="H100" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J100" s="43"/>
+    </row>
+    <row r="101" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="25">
         <v>2663625</v>
       </c>
@@ -5033,7 +5097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="25">
         <v>2664222</v>
       </c>
@@ -5059,7 +5123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="25">
         <v>2664877</v>
       </c>
@@ -5085,7 +5149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="25">
         <v>2665732</v>
       </c>
@@ -5111,7 +5175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="25">
         <v>2661136</v>
       </c>
@@ -5134,7 +5198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="25">
         <v>2655962</v>
       </c>
@@ -5157,7 +5221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="25">
         <v>2648373</v>
       </c>
@@ -5180,7 +5244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="25">
         <v>2637651</v>
       </c>
@@ -5203,7 +5267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="25">
         <v>2659151</v>
       </c>
@@ -5226,7 +5290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="25">
         <v>2665099</v>
       </c>
@@ -5249,7 +5313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="25">
         <v>2658819</v>
       </c>
@@ -5272,7 +5336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="25">
         <v>2654489</v>
       </c>
@@ -5294,8 +5358,9 @@
       <c r="H112" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J112" s="43"/>
+    </row>
+    <row r="113" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="25">
         <v>2647674</v>
       </c>
@@ -5318,7 +5383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="25">
         <v>2664638</v>
       </c>
@@ -5341,7 +5406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="25">
         <v>2665700</v>
       </c>
@@ -5364,7 +5429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="25">
         <v>2630887</v>
       </c>
@@ -5386,8 +5451,9 @@
       <c r="H116" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J116" s="43"/>
+    </row>
+    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25">
         <v>2655391</v>
       </c>
@@ -5409,13 +5475,14 @@
       <c r="H117" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J117" s="47"/>
+    </row>
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="K121" s="4"/>
@@ -5423,7 +5490,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D122" s="25"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -5432,7 +5499,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="K123" s="4"/>
@@ -5440,7 +5507,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="K124" s="4"/>
@@ -5448,7 +5515,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="K125" s="4"/>
@@ -5456,7 +5523,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="K126" s="4"/>
@@ -5464,7 +5531,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="K127" s="4"/>
@@ -5472,7 +5539,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="K128" s="4"/>
@@ -5480,7 +5547,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="K129" s="4"/>
@@ -5488,7 +5555,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B130" s="14"/>
       <c r="F130" s="15"/>
     </row>
@@ -5500,15 +5567,969 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26">
+        <v>2654489</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
+        <v>3423296</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>3423327</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>3423293</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <v>3423288</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <v>3423372</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26">
+        <v>3423371</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26">
+        <v>2664418</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26">
+        <v>2663195</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26">
+        <v>2652164</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26">
+        <v>3423215</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26">
+        <v>3423397</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26">
+        <v>3402361</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>64.3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="26">
+        <v>3402497</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="26">
+        <v>2653525</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="26">
+        <v>2657171</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="26">
+        <v>2657066</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26">
+        <v>3423400</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="26">
+        <v>1959145</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>90</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="26">
+        <v>3423265</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="26">
+        <v>3423200</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="26">
+        <v>3423217</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1772842</v>
+      </c>
+      <c r="F33" s="45">
+        <v>11171</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="26">
+        <v>3423219</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1772842</v>
+      </c>
+      <c r="F34" s="45">
+        <v>46082</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="26">
+        <v>3423298</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1772842</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="26">
+        <v>3423303</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1772842</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="26">
+        <v>3423413</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1772842</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="26">
+        <v>3423281</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4">
+        <v>65</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="26">
+        <v>2651448</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="4">
+        <v>20</v>
+      </c>
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="J42" s="43"/>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="26">
+        <v>2630887</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="26">
+        <v>3423248</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="J45" s="43"/>
+    </row>
+    <row r="46" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="26">
+        <v>2662615</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="25"/>
+      <c r="D59" s="46"/>
+    </row>
+    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="25"/>
+      <c r="D61" s="46"/>
+    </row>
+    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="25"/>
+      <c r="D62" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11">
         <v>3418629</v>
       </c>
@@ -5525,7 +6546,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>3418651</v>
       </c>
@@ -5542,7 +6563,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>85</v>
       </c>
@@ -5561,7 +6582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3402345</v>
       </c>
@@ -5587,7 +6608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>3402426</v>
       </c>
@@ -5607,7 +6628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>3402433</v>
       </c>
@@ -5627,7 +6648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>3402456</v>
       </c>
@@ -5647,7 +6668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>3418642</v>
       </c>
@@ -5669,7 +6690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
@@ -5677,19 +6698,19 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>3401002</v>
       </c>
@@ -5715,7 +6736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>3402419</v>
       </c>
@@ -5741,7 +6762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3402347</v>
       </c>
@@ -5767,7 +6788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>3402432</v>
       </c>
@@ -5793,7 +6814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>3402467</v>
       </c>
@@ -5816,7 +6837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>3402569</v>
       </c>
@@ -5839,7 +6860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>3402473</v>
       </c>
@@ -5868,7 +6889,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>3402569</v>
       </c>
@@ -5891,7 +6912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>3402458</v>
       </c>
@@ -5917,7 +6938,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>3402496</v>
       </c>
@@ -5940,7 +6961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>79</v>
       </c>
@@ -5958,7 +6979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>3402352</v>
       </c>
@@ -5987,7 +7008,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>3402418</v>
       </c>
@@ -6013,7 +7034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>3402373</v>
       </c>
@@ -6036,7 +7057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>3402444</v>
       </c>
@@ -6062,7 +7083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>3402488</v>
       </c>
@@ -6085,7 +7106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>3402480</v>
       </c>
@@ -6108,7 +7129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>82</v>
       </c>
@@ -6130,7 +7151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>88</v>
       </c>
@@ -6148,7 +7169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>3402598</v>
       </c>
@@ -6171,7 +7192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="22" t="s">
         <v>85</v>
       </c>
@@ -6190,7 +7211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>3402345</v>
       </c>
@@ -6216,7 +7237,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>3402426</v>
       </c>
@@ -6236,7 +7257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>3402433</v>
       </c>
@@ -6256,7 +7277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>3402456</v>
       </c>
@@ -6274,449 +7295,6 @@
       </c>
       <c r="G45" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>3402427</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>3402475</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3402445</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="4">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>3402499</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>3402562</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>3402410</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="4">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>3402510</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>3402346</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>3402381</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>3402386</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>3402359</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="32">
-        <v>43511</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>3402571</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>3402555</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>3402562</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="H21" s="4">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>3402529</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="4">
-        <v>13.4</v>
       </c>
     </row>
   </sheetData>
@@ -6727,15 +7305,458 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5">
+        <v>3402427</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>3402475</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3402445</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="5">
+        <v>3402499</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>3402562</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>3402410</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>3402510</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>3402346</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>3402381</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>3402386</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>3402359</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="32">
+        <v>43511</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>3402571</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>3402555</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>3402562</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H21" s="4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>3402529</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="4">
+        <v>13.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>3345132</v>
       </c>
@@ -6761,7 +7782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>3390772</v>
       </c>
@@ -6776,8 +7797,8 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>3390785</v>
       </c>
@@ -6792,7 +7813,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>3390767</v>
       </c>
@@ -6807,7 +7828,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -6827,7 +7848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>3390848</v>
       </c>
@@ -6842,7 +7863,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>29</v>
       </c>
@@ -6872,7 +7893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -6880,18 +7901,18 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29">
         <v>3390848</v>
       </c>
@@ -6909,7 +7930,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -6919,7 +7940,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>3390851</v>
       </c>
@@ -6937,7 +7958,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6947,7 +7968,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>3393885</v>
       </c>
@@ -6971,7 +7992,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6981,7 +8002,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>3393784</v>
       </c>
@@ -7005,7 +8026,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7015,7 +8036,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27">
         <v>3393932</v>
       </c>
@@ -7039,7 +8060,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7049,7 +8070,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>3390847</v>
       </c>

--- a/rozjazdy zbiorcze czerwiec.xlsx
+++ b/rozjazdy zbiorcze czerwiec.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="446">
   <si>
     <t>milenium</t>
   </si>
@@ -1507,12 +1507,21 @@
   <si>
     <t xml:space="preserve">ZAJĄCZKOWSKA 47/11, 51-180 WROCŁAW </t>
   </si>
+  <si>
+    <t xml:space="preserve"> 0004319454</t>
+  </si>
+  <si>
+    <t>KSIĘCIA JÓZEFA PONIATOWS 1B/6; OLEŚNICA</t>
+  </si>
+  <si>
+    <t>mil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1732,6 +1741,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2108,7 +2125,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2199,6 +2216,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2525,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2663,102 +2695,96 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="4">
+        <v>65</v>
+      </c>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15">
+      <c r="E8" s="16"/>
+      <c r="F8" s="15">
         <v>6927</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H8" s="38">
         <v>65</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N8" s="38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H9" s="31">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>431</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="40" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="40" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>3402529</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="33">
-        <v>13.4</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>3402510</v>
+        <v>3402529</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="33">
-        <v>2.68</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>3402346</v>
+        <v>3402510</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>56</v>
@@ -2770,7 +2796,7 @@
         <v>58</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>73</v>
@@ -2781,7 +2807,7 @@
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>3402381</v>
+        <v>3402346</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
@@ -2793,7 +2819,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>73</v>
@@ -2804,7 +2830,7 @@
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>3402386</v>
+        <v>3402381</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>56</v>
@@ -2816,7 +2842,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>73</v>
@@ -2827,7 +2853,7 @@
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>3402359</v>
+        <v>3402386</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>56</v>
@@ -2838,8 +2864,8 @@
       <c r="D14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="24">
-        <v>43511</v>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>73</v>
@@ -2850,45 +2876,42 @@
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>3402562</v>
+        <v>3402359</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F15" s="24">
+        <v>43511</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H15" s="33">
-        <v>13.4</v>
-      </c>
-      <c r="I15" s="33">
-        <v>13.4</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>3402499</v>
+        <v>3402562</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>73</v>
@@ -2896,36 +2919,36 @@
       <c r="H16" s="33">
         <v>13.4</v>
       </c>
+      <c r="I16" s="33">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>3402427</v>
+        <v>3402499</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6620378</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H17" s="33">
-        <v>6.7</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>3402475</v>
+        <v>3402427</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
@@ -2940,7 +2963,7 @@
         <v>6620378</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>73</v>
@@ -2951,45 +2974,48 @@
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>3402445</v>
+        <v>3402475</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6620378</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H19" s="33">
-        <v>13.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>3402410</v>
+        <v>3402445</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>73</v>
@@ -3000,30 +3026,30 @@
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>3402571</v>
+        <v>3402410</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="33">
-        <v>6.7</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>3402555</v>
+        <v>3402571</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>62</v>
@@ -3035,7 +3061,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>73</v>
@@ -3044,53 +3070,50 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>3401002</v>
+        <v>3402555</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1292702</v>
+        <v>64</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="38">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="H23" s="33">
+        <v>6.7</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>3402347</v>
+        <v>3401002</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="E24" s="4">
-        <v>2771699</v>
+        <v>1292702</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="H24" s="38">
         <v>65</v>
@@ -3098,7 +3121,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>3402432</v>
+        <v>3402347</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>97</v>
@@ -3113,7 +3136,7 @@
         <v>2771699</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>3</v>
@@ -3121,27 +3144,25 @@
       <c r="H25" s="38">
         <v>65</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>3402458</v>
+        <v>3402432</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2771699</v>
+      </c>
       <c r="F26" s="4" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>3</v>
@@ -3149,28 +3170,27 @@
       <c r="H26" s="38">
         <v>65</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>3402473</v>
+        <v>3402458</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="4">
-        <v>4185369</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>3</v>
@@ -3178,25 +3198,28 @@
       <c r="H27" s="38">
         <v>65</v>
       </c>
+      <c r="K27" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>3402419</v>
+        <v>3402473</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="E28" s="4">
-        <v>8860378</v>
+        <v>4185369</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>3</v>
@@ -3207,20 +3230,22 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>3402467</v>
+        <v>3402419</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8860378</v>
+      </c>
       <c r="F29" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>3</v>
@@ -3231,20 +3256,20 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>3402598</v>
+        <v>3402467</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>3</v>
@@ -3252,27 +3277,23 @@
       <c r="H30" s="38">
         <v>65</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>3402496</v>
+        <v>3402598</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>3</v>
@@ -3287,39 +3308,35 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>3402352</v>
+        <v>3402496</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="4">
-        <v>7028031</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="38">
-        <v>45</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>149</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>3402418</v>
+        <v>3402352</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>121</v>
@@ -3334,7 +3351,7 @@
         <v>7028031</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>3</v>
@@ -3342,33 +3359,37 @@
       <c r="H33" s="38">
         <v>45</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>3402373</v>
+        <v>3402418</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7028031</v>
+      </c>
       <c r="F34" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H34" s="38">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -3377,28 +3398,26 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>3402444</v>
+        <v>3402373</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="4">
-        <v>5531005</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="38">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -3407,7 +3426,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>3402488</v>
+        <v>3402444</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>131</v>
@@ -3422,12 +3441,14 @@
         <v>5531005</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="38"/>
+      <c r="H36" s="38">
+        <v>65</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -3435,7 +3456,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>3402480</v>
+        <v>3402488</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>131</v>
@@ -3450,7 +3471,7 @@
         <v>5531005</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>3</v>
@@ -3463,22 +3484,22 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>3402569</v>
+        <v>3402480</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="E38" s="4">
-        <v>3455840</v>
+        <v>5531005</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>3</v>
@@ -3491,37 +3512,35 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>3402345</v>
+        <v>3402569</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3455840</v>
+      </c>
       <c r="F39" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="39">
-        <v>65</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="H39" s="38"/>
+      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>3402426</v>
+        <v>3402345</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>141</v>
@@ -3534,20 +3553,24 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="K40" s="4"/>
+      <c r="H40" s="39">
+        <v>65</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>3402433</v>
+        <v>3402426</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>141</v>
@@ -3560,7 +3583,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>3</v>
@@ -3573,7 +3596,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>3402456</v>
+        <v>3402433</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>141</v>
@@ -3586,7 +3609,7 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>3</v>
@@ -3598,58 +3621,58 @@
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="11">
-        <v>3418656</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="38">
-        <v>65</v>
-      </c>
+      <c r="A43" s="4">
+        <v>3402456</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
-        <v>3418642</v>
+        <v>3418656</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>158</v>
+      </c>
       <c r="D44" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" t="s">
         <v>159</v>
       </c>
-      <c r="H44" s="39">
-        <v>90</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="H44" s="38">
+        <v>65</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
-        <v>3418651</v>
+        <v>3418642</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3657,23 +3680,25 @@
         <v>159</v>
       </c>
       <c r="H45" s="39">
-        <v>13.4</v>
-      </c>
-      <c r="K45" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
-        <v>3418629</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>164</v>
+        <v>3418651</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3688,95 +3713,92 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="25">
-        <v>3423400</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1959145</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>311</v>
-      </c>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>3418629</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="4">
-        <v>90</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="J47" s="43"/>
-      <c r="K47" s="4" t="s">
-        <v>432</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H47" s="39">
+        <v>13.4</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="25">
+        <v>3423400</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1959145</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="4">
+        <v>90</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J48" s="43"/>
+      <c r="K48" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="25">
         <v>3423367</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>9745059</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="G49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="4">
         <v>13.4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="25">
+    <row r="50" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="25">
         <v>3423217</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1772842</v>
-      </c>
-      <c r="F49" s="23">
-        <v>11171</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="4">
-        <v>13</v>
-      </c>
-      <c r="J49" s="43"/>
-    </row>
-    <row r="50" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="25">
-        <v>3423219</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>316</v>
@@ -3791,7 +3813,7 @@
         <v>1772842</v>
       </c>
       <c r="F50" s="23">
-        <v>46082</v>
+        <v>11171</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>3</v>
@@ -3801,9 +3823,9 @@
       </c>
       <c r="J50" s="43"/>
     </row>
-    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="25">
-        <v>3423298</v>
+        <v>3423219</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>316</v>
@@ -3817,8 +3839,8 @@
       <c r="E51" s="4">
         <v>1772842</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>318</v>
+      <c r="F51" s="23">
+        <v>46082</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>3</v>
@@ -3828,9 +3850,9 @@
       </c>
       <c r="J51" s="43"/>
     </row>
-    <row r="52" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="25">
-        <v>3423303</v>
+        <v>3423298</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>316</v>
@@ -3845,7 +3867,7 @@
         <v>1772842</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>3</v>
@@ -3855,9 +3877,9 @@
       </c>
       <c r="J52" s="43"/>
     </row>
-    <row r="53" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="25">
-        <v>3423413</v>
+        <v>3423303</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>316</v>
@@ -3872,7 +3894,7 @@
         <v>1772842</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>3</v>
@@ -3882,33 +3904,36 @@
       </c>
       <c r="J53" s="43"/>
     </row>
-    <row r="54" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="25">
+        <v>3423413</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1772842</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="4">
+        <v>13</v>
+      </c>
+      <c r="J54" s="43"/>
+    </row>
+    <row r="55" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="25">
         <v>3423215</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="J54" s="43"/>
-    </row>
-    <row r="55" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="25">
-        <v>3423397</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>329</v>
@@ -3920,7 +3945,7 @@
         <v>330</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>3</v>
@@ -3930,56 +3955,56 @@
       </c>
       <c r="J55" s="43"/>
     </row>
-    <row r="56" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25">
+        <v>3423397</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="J56" s="43"/>
+    </row>
+    <row r="57" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="25">
         <v>3423292</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="4">
+      <c r="G57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4">
         <v>13.4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="25">
+    <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="25">
         <v>3423296</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="4">
-        <v>3.35</v>
-      </c>
-      <c r="J57" s="43"/>
-    </row>
-    <row r="58" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="25">
-        <v>3423327</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>345</v>
@@ -3991,7 +4016,7 @@
         <v>347</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>3</v>
@@ -4001,9 +4026,9 @@
       </c>
       <c r="J58" s="43"/>
     </row>
-    <row r="59" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="25">
-        <v>3423293</v>
+        <v>3423327</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>345</v>
@@ -4015,7 +4040,7 @@
         <v>347</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>3</v>
@@ -4025,9 +4050,9 @@
       </c>
       <c r="J59" s="43"/>
     </row>
-    <row r="60" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="25">
-        <v>3423288</v>
+        <v>3423293</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>345</v>
@@ -4039,7 +4064,7 @@
         <v>347</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>3</v>
@@ -4049,36 +4074,33 @@
       </c>
       <c r="J60" s="43"/>
     </row>
-    <row r="61" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25">
-        <v>3423372</v>
+        <v>3423288</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>364</v>
+      <c r="D61" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H61" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="I61" s="4">
-        <v>6.7</v>
+        <v>3.35</v>
       </c>
       <c r="J61" s="43"/>
     </row>
-    <row r="62" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="25">
-        <v>3423371</v>
+        <v>3423372</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>363</v>
@@ -4090,7 +4112,7 @@
         <v>364</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>3</v>
@@ -4103,83 +4125,87 @@
       </c>
       <c r="J62" s="43"/>
     </row>
-    <row r="63" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="25">
+        <v>3423371</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="I63" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="J63" s="43"/>
+    </row>
+    <row r="64" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="25">
         <v>3423248</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="G64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="4">
         <v>13.4</v>
       </c>
-      <c r="J63" s="43"/>
-    </row>
-    <row r="64" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="25">
+      <c r="J64" s="43"/>
+    </row>
+    <row r="65" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="25">
         <v>3423281</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="G65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4">
         <v>65</v>
       </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="4" t="s">
+      <c r="J65" s="43"/>
+      <c r="K65" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="25">
+    <row r="66" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="25">
         <v>3423337</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="25">
-        <v>3423330</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>385</v>
@@ -4191,7 +4217,7 @@
         <v>387</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>3</v>
@@ -4200,33 +4226,32 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="25">
+        <v>3423330</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="25">
         <v>3423265</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="J67" s="43"/>
-    </row>
-    <row r="68" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="25">
-        <v>3423200</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>394</v>
@@ -4238,7 +4263,7 @@
         <v>396</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>3</v>
@@ -4248,32 +4273,33 @@
       </c>
       <c r="J68" s="43"/>
     </row>
-    <row r="69" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="25">
+        <v>3423200</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="J69" s="43"/>
+    </row>
+    <row r="70" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="25">
         <v>3423384</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="25">
-        <v>3423379</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>407</v>
@@ -4285,7 +4311,7 @@
         <v>409</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>3</v>
@@ -4294,57 +4320,56 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="25">
+        <v>3423379</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="25">
         <v>3423271</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="G72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="4">
         <v>65</v>
       </c>
-      <c r="J71" s="47"/>
-    </row>
-    <row r="72" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="25">
+      <c r="J72" s="47"/>
+    </row>
+    <row r="73" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="25">
         <v>3402361</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F72" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="J72" s="43"/>
-    </row>
-    <row r="73" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="25">
-        <v>3402497</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>438</v>
@@ -4355,8 +4380,8 @@
       <c r="D73" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>439</v>
+      <c r="F73" s="4">
+        <v>64.3</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>3</v>
@@ -4366,44 +4391,45 @@
       </c>
       <c r="J73" s="43"/>
     </row>
-    <row r="74" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="25">
+        <v>3402497</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="J74" s="43"/>
+    </row>
+    <row r="75" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="25">
         <v>2631008</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H74" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="25">
-        <v>2665003</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>171</v>
@@ -4412,24 +4438,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="25">
-        <v>2631572</v>
+        <v>2665003</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>166</v>
+        <v>420</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>167</v>
+        <v>421</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>169</v>
+        <v>422</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>170</v>
+        <v>423</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>171</v>
@@ -4438,24 +4461,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="25">
-        <v>2649684</v>
+        <v>2631572</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>171</v>
@@ -4464,24 +4487,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="25">
-        <v>2649882</v>
+        <v>2649684</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>171</v>
@@ -4490,24 +4513,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25">
-        <v>2651448</v>
+        <v>2649882</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>171</v>
@@ -4515,26 +4538,25 @@
       <c r="H79" s="4">
         <v>20</v>
       </c>
-      <c r="J79" s="43"/>
-    </row>
-    <row r="80" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="25">
-        <v>2652148</v>
+        <v>2651448</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>171</v>
@@ -4542,25 +4564,26 @@
       <c r="H80" s="4">
         <v>20</v>
       </c>
+      <c r="J80" s="43"/>
     </row>
     <row r="81" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="25">
-        <v>2652164</v>
+        <v>2652148</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>171</v>
@@ -4568,26 +4591,25 @@
       <c r="H81" s="4">
         <v>20</v>
       </c>
-      <c r="J81" s="43"/>
     </row>
     <row r="82" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="25">
-        <v>2652182</v>
+        <v>2652164</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>171</v>
@@ -4595,25 +4617,26 @@
       <c r="H82" s="4">
         <v>20</v>
       </c>
+      <c r="J82" s="43"/>
     </row>
     <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="25">
-        <v>2652752</v>
+        <v>2652182</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>171</v>
@@ -4624,22 +4647,22 @@
     </row>
     <row r="84" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="25">
-        <v>2653525</v>
+        <v>2652752</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>171</v>
@@ -4647,26 +4670,25 @@
       <c r="H84" s="4">
         <v>20</v>
       </c>
-      <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="25">
-        <v>2655035</v>
+        <v>2653525</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>171</v>
@@ -4674,25 +4696,26 @@
       <c r="H85" s="4">
         <v>20</v>
       </c>
+      <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="25">
-        <v>2655412</v>
+        <v>2655035</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>171</v>
@@ -4703,22 +4726,22 @@
     </row>
     <row r="87" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="25">
-        <v>2657066</v>
+        <v>2655412</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>171</v>
@@ -4726,26 +4749,25 @@
       <c r="H87" s="4">
         <v>20</v>
       </c>
-      <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="25">
-        <v>2657171</v>
+        <v>2657066</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>171</v>
@@ -4757,22 +4779,22 @@
     </row>
     <row r="89" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="25">
-        <v>2657826</v>
+        <v>2657171</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>171</v>
@@ -4780,25 +4802,26 @@
       <c r="H89" s="4">
         <v>20</v>
       </c>
+      <c r="J89" s="43"/>
     </row>
     <row r="90" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="25">
-        <v>2658057</v>
+        <v>2657826</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>171</v>
@@ -4809,22 +4832,22 @@
     </row>
     <row r="91" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="25">
-        <v>2658605</v>
+        <v>2658057</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>171</v>
@@ -4835,22 +4858,22 @@
     </row>
     <row r="92" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="25">
-        <v>2659760</v>
+        <v>2658605</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>171</v>
@@ -4861,22 +4884,22 @@
     </row>
     <row r="93" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="25">
-        <v>2660057</v>
+        <v>2659760</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>171</v>
@@ -4887,22 +4910,22 @@
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="25">
-        <v>2661093</v>
+        <v>2660057</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>171</v>
@@ -4913,22 +4936,22 @@
     </row>
     <row r="95" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="25">
-        <v>2661500</v>
+        <v>2661093</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>171</v>
@@ -4939,22 +4962,22 @@
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="25">
-        <v>2661562</v>
+        <v>2661500</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>171</v>
@@ -4965,22 +4988,22 @@
     </row>
     <row r="97" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="25">
-        <v>2662325</v>
+        <v>2661562</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>171</v>
@@ -4988,26 +5011,25 @@
       <c r="H97" s="4">
         <v>20</v>
       </c>
-      <c r="J97" s="47"/>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="25">
-        <v>2662615</v>
+        <v>2662325</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>171</v>
@@ -5015,26 +5037,26 @@
       <c r="H98" s="4">
         <v>20</v>
       </c>
-      <c r="J98" s="43"/>
+      <c r="J98" s="47"/>
     </row>
     <row r="99" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="25">
-        <v>2664418</v>
+        <v>2662615</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>171</v>
@@ -5046,7 +5068,7 @@
     </row>
     <row r="100" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="25">
-        <v>2663195</v>
+        <v>2664418</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>282</v>
@@ -5058,10 +5080,10 @@
         <v>283</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>171</v>
@@ -5073,22 +5095,22 @@
     </row>
     <row r="101" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="25">
-        <v>2663625</v>
+        <v>2663195</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>290</v>
+        <v>67</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>171</v>
@@ -5096,25 +5118,26 @@
       <c r="H101" s="4">
         <v>20</v>
       </c>
+      <c r="J101" s="43"/>
     </row>
     <row r="102" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="25">
-        <v>2664222</v>
+        <v>2663625</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>171</v>
@@ -5125,22 +5148,22 @@
     </row>
     <row r="103" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="25">
-        <v>2664877</v>
+        <v>2664222</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>171</v>
@@ -5151,22 +5174,22 @@
     </row>
     <row r="104" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="25">
-        <v>2665732</v>
+        <v>2664877</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>171</v>
@@ -5177,19 +5200,22 @@
     </row>
     <row r="105" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="25">
-        <v>2661136</v>
+        <v>2665732</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>323</v>
+        <v>304</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>171</v>
@@ -5200,19 +5226,19 @@
     </row>
     <row r="106" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="25">
-        <v>2655962</v>
+        <v>2661136</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>171</v>
@@ -5223,19 +5249,19 @@
     </row>
     <row r="107" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="25">
-        <v>2648373</v>
+        <v>2655962</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>171</v>
@@ -5246,19 +5272,19 @@
     </row>
     <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="25">
-        <v>2637651</v>
+        <v>2648373</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>171</v>
@@ -5269,19 +5295,19 @@
     </row>
     <row r="109" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="25">
-        <v>2659151</v>
+        <v>2637651</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>171</v>
@@ -5292,19 +5318,19 @@
     </row>
     <row r="110" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="25">
-        <v>2665099</v>
+        <v>2659151</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>171</v>
@@ -5315,19 +5341,19 @@
     </row>
     <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="25">
-        <v>2658819</v>
+        <v>2665099</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>361</v>
+        <v>50</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>171</v>
@@ -5338,19 +5364,19 @@
     </row>
     <row r="112" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="25">
-        <v>2654489</v>
+        <v>2658819</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>171</v>
@@ -5358,23 +5384,22 @@
       <c r="H112" s="4">
         <v>20</v>
       </c>
-      <c r="J112" s="43"/>
     </row>
     <row r="113" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="25">
-        <v>2647674</v>
+        <v>2654489</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>371</v>
+        <v>346</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>171</v>
@@ -5382,22 +5407,23 @@
       <c r="H113" s="4">
         <v>20</v>
       </c>
+      <c r="J113" s="43"/>
     </row>
     <row r="114" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="25">
-        <v>2664638</v>
+        <v>2647674</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>171</v>
@@ -5408,19 +5434,19 @@
     </row>
     <row r="115" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="25">
-        <v>2665700</v>
+        <v>2664638</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>171</v>
@@ -5431,19 +5457,19 @@
     </row>
     <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="25">
-        <v>2630887</v>
+        <v>2665700</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>171</v>
@@ -5451,23 +5477,22 @@
       <c r="H116" s="4">
         <v>20</v>
       </c>
-      <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25">
-        <v>2655391</v>
+        <v>2630887</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>171</v>
@@ -5475,23 +5500,38 @@
       <c r="H117" s="4">
         <v>20</v>
       </c>
-      <c r="J117" s="47"/>
-    </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="J117" s="43"/>
+    </row>
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="25">
+        <v>2655391</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H118" s="4">
+        <v>20</v>
+      </c>
+      <c r="J118" s="47"/>
+    </row>
     <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D122" s="25"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="K122" s="4"/>
@@ -5500,6 +5540,7 @@
       <c r="N122" s="4"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D123" s="25"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="K123" s="4"/>
@@ -5556,8 +5597,16 @@
       <c r="N129" s="4"/>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B130" s="14"/>
-      <c r="F130" s="15"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B131" s="14"/>
+      <c r="F131" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5567,10 +5616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5906,7 +5955,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>3423397</v>
       </c>
@@ -5930,7 +5979,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5939,7 +5988,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>3402361</v>
       </c>
@@ -5961,7 +6010,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
         <v>3402497</v>
       </c>
@@ -5983,7 +6032,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5992,7 +6041,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26">
         <v>2653525</v>
       </c>
@@ -6018,7 +6067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6027,7 +6076,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26">
         <v>2657171</v>
       </c>
@@ -6053,7 +6102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -6062,7 +6111,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26">
         <v>2657066</v>
       </c>
@@ -6088,7 +6137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -6097,159 +6146,138 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26">
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H28" s="4">
+        <v>65</v>
+      </c>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="48"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="5"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="26">
         <v>3423400</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B30" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C30" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D30" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E30" s="26">
         <v>1959145</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F30" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G30" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
         <v>90</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="1:11" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26">
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="26">
         <v>3423265</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B32" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C32" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D32" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G32" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4">
         <v>32.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="26">
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="26">
         <v>3423200</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B33" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C33" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D33" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4">
         <v>32.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26">
-        <v>3423217</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1772842</v>
-      </c>
-      <c r="F33" s="45">
-        <v>11171</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="4">
-        <v>13</v>
-      </c>
-    </row>
     <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26">
-        <v>3423219</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1772842</v>
-      </c>
-      <c r="F34" s="45">
-        <v>46082</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="4">
-        <v>13</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26">
-        <v>3423298</v>
+        <v>3423217</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>316</v>
@@ -6263,8 +6291,8 @@
       <c r="E35" s="5">
         <v>1772842</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>318</v>
+      <c r="F35" s="45">
+        <v>11171</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>3</v>
@@ -6275,7 +6303,7 @@
     </row>
     <row r="36" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26">
-        <v>3423303</v>
+        <v>3423219</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>316</v>
@@ -6289,8 +6317,8 @@
       <c r="E36" s="5">
         <v>1772842</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>319</v>
+      <c r="F36" s="45">
+        <v>46082</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>3</v>
@@ -6301,7 +6329,7 @@
     </row>
     <row r="37" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="26">
-        <v>3423413</v>
+        <v>3423298</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>316</v>
@@ -6316,7 +6344,7 @@
         <v>1772842</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>3</v>
@@ -6326,78 +6354,94 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="26">
+        <v>3423303</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1772842</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26">
-        <v>3423281</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="G39" s="26" t="s">
+        <v>3423413</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1772842</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="4">
-        <v>65</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="26">
-        <v>2651448</v>
+        <v>3423281</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>182</v>
+        <v>381</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>183</v>
+        <v>382</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>185</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="E41" s="26"/>
       <c r="F41" s="26" t="s">
-        <v>186</v>
+        <v>384</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="H41" s="4">
-        <v>20</v>
-      </c>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -6405,24 +6449,25 @@
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="26">
-        <v>2630887</v>
+        <v>2651448</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>399</v>
+        <v>182</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>400</v>
+        <v>183</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="E43" s="26"/>
+        <v>184</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>185</v>
+      </c>
       <c r="F43" s="26" t="s">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>171</v>
@@ -6430,8 +6475,9 @@
       <c r="H43" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -6439,33 +6485,33 @@
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26">
-        <v>3423248</v>
+        <v>2630887</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="H45" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -6473,45 +6519,79 @@
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26">
+        <v>3423248</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="J47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="26">
         <v>2662615</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B49" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C49" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D49" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E49" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F49" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G49" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H49" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="25"/>
-      <c r="D59" s="46"/>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="D61" s="46"/>
     </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="25"/>
-      <c r="D62" s="8"/>
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="25"/>
+      <c r="D63" s="46"/>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="25"/>
+      <c r="D64" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rozjazdy zbiorcze czerwiec.xlsx
+++ b/rozjazdy zbiorcze czerwiec.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="445">
   <si>
     <t>milenium</t>
   </si>
@@ -1237,9 +1237,6 @@
   </si>
   <si>
     <t>DAWID MIZIŃSKI</t>
-  </si>
-  <si>
-    <t>ZAJĄCZKOWSKA 47/11, 51-180 WROCŁAW // ZAJĄCZKOWSKA 47/11, 51-180 WROCŁAW</t>
   </si>
   <si>
     <t>261.23</t>
@@ -1505,9 +1502,6 @@
     <t>??????</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAJĄCZKOWSKA 47/11, 51-180 WROCŁAW </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0004319454</t>
   </si>
   <si>
@@ -1515,6 +1509,9 @@
   </si>
   <si>
     <t>mil</t>
+  </si>
+  <si>
+    <t>ZAJĄCZKOWSKA 47/11, 51-180 WROCŁAW // Grawerska 32N, 51-180 WROCŁAW</t>
   </si>
 </sst>
 </file>
@@ -2559,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2576,17 +2573,17 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>425</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>426</v>
       </c>
       <c r="E1" s="9"/>
       <c r="G1" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1" s="39">
         <v>35</v>
@@ -2594,17 +2591,17 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2" s="39">
         <v>35</v>
@@ -2612,17 +2609,17 @@
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="D3" s="16" t="s">
         <v>435</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>436</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H3" s="4">
         <v>35</v>
@@ -2695,13 +2692,13 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="15"/>
@@ -2751,12 +2748,12 @@
         <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -3683,7 +3680,7 @@
         <v>90</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -3763,11 +3760,11 @@
         <v>90</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J48" s="43"/>
       <c r="K48" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -4109,10 +4106,10 @@
         <v>346</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>3</v>
@@ -4136,10 +4133,10 @@
         <v>346</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>3</v>
@@ -4157,16 +4154,16 @@
         <v>3423248</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>3</v>
@@ -4181,16 +4178,16 @@
         <v>3423281</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="F65" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>3</v>
@@ -4200,7 +4197,7 @@
       </c>
       <c r="J65" s="43"/>
       <c r="K65" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -4208,16 +4205,16 @@
         <v>3423337</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>3</v>
@@ -4231,16 +4228,16 @@
         <v>3423330</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>3</v>
@@ -4254,16 +4251,16 @@
         <v>3423265</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="F68" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>397</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>3</v>
@@ -4278,16 +4275,16 @@
         <v>3423200</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>3</v>
@@ -4302,16 +4299,16 @@
         <v>3423384</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>3</v>
@@ -4325,16 +4322,16 @@
         <v>3423379</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>3</v>
@@ -4348,16 +4345,16 @@
         <v>3423271</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="F72" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>3</v>
@@ -4372,13 +4369,13 @@
         <v>3402361</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F73" s="4">
         <v>64.3</v>
@@ -4396,16 +4393,16 @@
         <v>3402497</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>3</v>
@@ -4420,16 +4417,16 @@
         <v>2631008</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>171</v>
@@ -4443,16 +4440,16 @@
         <v>2665003</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>171</v>
@@ -5396,10 +5393,10 @@
         <v>346</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>171</v>
@@ -5414,16 +5411,16 @@
         <v>2647674</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="F114" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>171</v>
@@ -5437,16 +5434,16 @@
         <v>2664638</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="F115" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>171</v>
@@ -5460,16 +5457,16 @@
         <v>2665700</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="F116" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>171</v>
@@ -5483,16 +5480,16 @@
         <v>2630887</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="D117" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="F117" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>171</v>
@@ -5507,16 +5504,16 @@
         <v>2655391</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="F118" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>171</v>
@@ -5618,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5645,11 +5642,11 @@
         <v>346</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>171</v>
@@ -5782,12 +5779,12 @@
       <c r="C8" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>442</v>
+      <c r="D8" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>3</v>
@@ -5809,12 +5806,12 @@
       <c r="C9" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>442</v>
+      <c r="D9" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>3</v>
@@ -5993,11 +5990,11 @@
         <v>3402361</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
@@ -6015,15 +6012,15 @@
         <v>3402497</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>3</v>
@@ -6148,19 +6145,19 @@
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="52" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="49" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E28" s="50"/>
       <c r="F28" s="49"/>
       <c r="G28" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H28" s="4">
         <v>65</v>
@@ -6203,10 +6200,10 @@
         <v>90</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
@@ -6223,17 +6220,17 @@
         <v>3423265</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="D32" s="26" t="s">
         <v>395</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>396</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>3</v>
@@ -6247,17 +6244,17 @@
         <v>3423200</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="D33" s="26" t="s">
         <v>395</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>396</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>3</v>
@@ -6419,17 +6416,17 @@
         <v>3423281</v>
       </c>
       <c r="B41" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="D41" s="26" t="s">
         <v>382</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>383</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>3</v>
@@ -6438,7 +6435,7 @@
         <v>65</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6492,17 +6489,17 @@
         <v>2630887</v>
       </c>
       <c r="B45" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="D45" s="26" t="s">
         <v>400</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>401</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>171</v>
@@ -6525,17 +6522,17 @@
         <v>3423248</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="D47" s="26" t="s">
         <v>378</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>379</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>3</v>
